--- a/data/trans_dic/IMC_inf_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IMC_inf_R2-Habitat-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con al menos sobrepeso</t>
+          <t>Población con sobrepeso u obesidad declarado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>56,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>49,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>45,17%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37,54%</t>
+          <t>43,85%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>43,77%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,07; 67,85</t>
+          <t>34,83; 71,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,51; 58,94</t>
+          <t>26,42; 66,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,16; 59,23</t>
+          <t>33,85; 78,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,29; 65,89</t>
+          <t>22,39; 77,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,5; 45,24</t>
+          <t>13,76; 48,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,35; 53,69</t>
+          <t>21,42; 65,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,89; 66,66</t>
+          <t>21,99; 67,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,91; 46,73</t>
+          <t>19,19; 63,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,7; 50,54</t>
+          <t>26,77; 52,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,72; 52,53</t>
+          <t>29,13; 59,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,27; 57,22</t>
+          <t>33,71; 65,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,55; 47,63</t>
+          <t>26,77; 60,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,6%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>50,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,06%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>39,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>34,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>42,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>41,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>46,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>45,6%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>34,43%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,19; 51,85</t>
+          <t>39,34; 53,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,91; 47,11</t>
+          <t>41,83; 59,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,44; 50,92</t>
+          <t>40,63; 58,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,5; 44,89</t>
+          <t>29,2; 48,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,83; 39,26</t>
+          <t>27,09; 42,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,12; 45,14</t>
+          <t>34,09; 51,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,01; 41,04</t>
+          <t>33,18; 50,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,97; 32,26</t>
+          <t>21,7; 37,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,16; 43,74</t>
+          <t>35,71; 46,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,78; 44,17</t>
+          <t>40,34; 52,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,21; 43,95</t>
+          <t>39,32; 51,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,84; 36,64</t>
+          <t>28,73; 40,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>55,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>35,23%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,48; 51,71</t>
+          <t>42,53; 54,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,5; 51,48</t>
+          <t>49,32; 61,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,2; 44,6</t>
+          <t>38,98; 51,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,37; 41,68</t>
+          <t>34,64; 47,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,92; 41,23</t>
+          <t>32,0; 43,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,35; 40,38</t>
+          <t>34,08; 46,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,44; 32,21</t>
+          <t>22,78; 33,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,19; 31,87</t>
+          <t>23,01; 34,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,08; 44,8</t>
+          <t>38,65; 46,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>36,99; 44,39</t>
+          <t>44,15; 53,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,37; 37,44</t>
+          <t>33,42; 41,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,34; 35,61</t>
+          <t>30,69; 39,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39,72%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>47,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>33,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>39,35%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>34,69%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,11; 46,21</t>
+          <t>37,76; 52,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,81; 43,93</t>
+          <t>39,86; 54,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,88; 40,09</t>
+          <t>32,19; 46,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 43,2</t>
+          <t>31,52; 48,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,85; 36,7</t>
+          <t>26,72; 40,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,91; 42,77</t>
+          <t>34,25; 48,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,04; 36,36</t>
+          <t>27,41; 40,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,62; 33,76</t>
+          <t>22,77; 37,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,06; 39,81</t>
+          <t>34,07; 44,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,55; 40,92</t>
+          <t>39,25; 49,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,12; 36,18</t>
+          <t>31,38; 41,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,43; 36,38</t>
+          <t>29,02; 40,77</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>48,19%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,79%</t>
+          <t>45,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>36,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,33%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>37,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>41,65%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>32,27%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,49; 42,48</t>
+          <t>35,04; 47,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,42; 46,04</t>
+          <t>41,02; 54,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,02; 45,36</t>
+          <t>39,49; 52,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,16; 38,51</t>
+          <t>29,93; 43,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,71; 40,62</t>
+          <t>29,31; 42,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,13; 44,33</t>
+          <t>36,84; 51,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,72; 41,16</t>
+          <t>31,62; 44,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,48; 31,0</t>
+          <t>21,7; 34,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,26; 40,27</t>
+          <t>33,37; 42,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>34,87; 43,02</t>
+          <t>41,71; 51,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,44; 41,62</t>
+          <t>37,1; 46,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,52; 33,22</t>
+          <t>27,97; 37,04</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>50,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>46,43%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>34,39%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,98; 44,8</t>
+          <t>42,42; 48,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,39; 44,21</t>
+          <t>47,01; 53,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,37; 42,4</t>
+          <t>41,43; 48,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,53; 38,6</t>
+          <t>35,48; 42,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,57; 36,5</t>
+          <t>32,22; 38,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,74; 39,81</t>
+          <t>38,92; 45,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,95; 34,63</t>
+          <t>31,59; 38,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,33; 29,32</t>
+          <t>25,79; 32,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,82; 40,13</t>
+          <t>38,14; 42,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37,08; 41,26</t>
+          <t>43,91; 48,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,48; 37,82</t>
+          <t>37,39; 42,21</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>28,67; 33,33</t>
+          <t>31,78; 37,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_inf_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IMC_inf_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>52,72%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46,05%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56,85%</t>
+          <t>42,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>47,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>50,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>40,6%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>46,03%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>43,77%</t>
+          <t>34,62%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,83; 71,93</t>
+          <t>26,51; 40,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 66,57</t>
+          <t>33,92; 49,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,85; 78,44</t>
+          <t>33,05; 49,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,39; 77,5</t>
+          <t>23,45; 37,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,76; 48,4</t>
+          <t>39,69; 54,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,42; 65,96</t>
+          <t>40,83; 57,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,99; 67,21</t>
+          <t>41,73; 58,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,19; 63,28</t>
+          <t>27,1; 48,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,77; 52,31</t>
+          <t>35,68; 45,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,13; 59,58</t>
+          <t>40,64; 52,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,71; 65,84</t>
+          <t>40,57; 52,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,77; 60,47</t>
+          <t>27,72; 41,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,24%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>55,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>46,5%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>35,39%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,34; 53,6</t>
+          <t>31,95; 43,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,83; 59,33</t>
+          <t>34,62; 46,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,63; 58,29</t>
+          <t>23,56; 34,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,2; 48,86</t>
+          <t>22,53; 34,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,09; 42,04</t>
+          <t>42,61; 54,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,09; 51,68</t>
+          <t>49,29; 61,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,18; 50,87</t>
+          <t>38,78; 51,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,7; 37,07</t>
+          <t>35,35; 48,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,71; 46,39</t>
+          <t>38,94; 47,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>40,34; 52,77</t>
+          <t>44,4; 53,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,32; 51,46</t>
+          <t>33,14; 41,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,73; 40,72</t>
+          <t>30,85; 40,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>40,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,12%</t>
+          <t>33,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>47,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>39,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>33,06%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,53; 54,24</t>
+          <t>27,36; 41,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>49,32; 61,89</t>
+          <t>34,46; 48,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,98; 51,27</t>
+          <t>28,04; 40,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,64; 47,55</t>
+          <t>14,31; 36,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,0; 43,47</t>
+          <t>38,06; 52,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,08; 46,88</t>
+          <t>40,37; 54,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,78; 33,86</t>
+          <t>32,07; 46,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,01; 34,79</t>
+          <t>30,72; 47,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,65; 46,86</t>
+          <t>34,49; 44,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>44,15; 53,03</t>
+          <t>39,13; 49,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,42; 41,68</t>
+          <t>32,02; 41,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,69; 39,91</t>
+          <t>24,03; 38,74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38,7%</t>
+          <t>37,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>48,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>45,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>41,65%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>32,77%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,76; 52,38</t>
+          <t>29,48; 42,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,86; 54,02</t>
+          <t>37,61; 50,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,19; 46,03</t>
+          <t>30,96; 44,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,52; 48,5</t>
+          <t>22,16; 35,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,72; 40,84</t>
+          <t>35,2; 47,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,25; 48,04</t>
+          <t>41,77; 54,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,41; 40,88</t>
+          <t>39,01; 52,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,77; 37,21</t>
+          <t>30,71; 43,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,07; 44,19</t>
+          <t>34,0; 42,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39,25; 49,22</t>
+          <t>41,22; 51,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,38; 41,07</t>
+          <t>37,24; 46,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,02; 40,77</t>
+          <t>28,02; 38,32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>41,11%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,71%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>50,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>39,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>46,43%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>34,0%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,04; 47,77</t>
+          <t>32,29; 38,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,02; 54,94</t>
+          <t>38,97; 45,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,49; 52,65</t>
+          <t>31,75; 38,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,93; 43,91</t>
+          <t>23,63; 32,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,31; 42,49</t>
+          <t>42,26; 48,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,84; 51,55</t>
+          <t>46,95; 54,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,62; 44,89</t>
+          <t>41,18; 48,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,7; 34,79</t>
+          <t>34,86; 42,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>33,37; 42,25</t>
+          <t>38,08; 42,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41,71; 51,42</t>
+          <t>43,86; 49,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,1; 46,41</t>
+          <t>37,54; 42,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,97; 37,04</t>
+          <t>30,66; 36,92</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>45,42%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>50,48%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>44,73%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>39,3%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>35,24%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>42,15%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>34,88%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>28,96%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>40,45%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>46,43%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>39,97%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>34,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>42,42; 48,64</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>47,01; 53,89</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>41,43; 48,03</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>35,48; 42,83</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>32,22; 38,63</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>38,92; 45,65</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>31,59; 38,16</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>25,79; 32,41</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>38,14; 42,74</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>43,91; 48,76</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>37,39; 42,21</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>31,78; 37,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
